--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T13:54:52+01:00</t>
+    <t>2023-11-02T14:22:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:22:57+01:00</t>
+    <t>2023-11-02T14:52:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T14:52:41+01:00</t>
+    <t>2023-11-02T22:24:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T22:24:37+01:00</t>
+    <t>2023-11-02T22:29:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T22:29:48+01:00</t>
+    <t>2023-11-03T00:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T00:58:12+01:00</t>
+    <t>2023-11-03T01:33:43+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T01:33:43+01:00</t>
+    <t>2023-11-03T08:05:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-03T08:05:33+01:00</t>
+    <t>2023-11-04T02:36:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T02:36:33+01:00</t>
+    <t>2023-11-04T02:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T02:45:56+01:00</t>
+    <t>2023-11-04T23:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T23:57:32+01:00</t>
+    <t>2023-11-05T00:35:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T00:35:42+01:00</t>
+    <t>2023-11-05T15:52:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T15:52:07+01:00</t>
+    <t>2023-11-05T18:57:51+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T18:57:51+01:00</t>
+    <t>2023-11-05T19:05:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T19:05:15+01:00</t>
+    <t>2023-11-13T19:18:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T19:18:44+01:00</t>
+    <t>2023-11-13T21:18:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T21:18:10+01:00</t>
+    <t>2023-11-15T00:00:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:00:31+01:00</t>
+    <t>2023-11-15T00:11:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T13:16:17+01:00</t>
+    <t>2023-12-12T23:44:27+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-no-kodeverk-8264.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
